--- a/data/3.15_製品データベース.xlsx
+++ b/data/3.15_製品データベース.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msrel\OneDrive\デスクトップ\Git\Scraping_k\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E59C4-BE89-4C49-ABFD-35F1851DFEC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3075" xr2:uid="{939FEF90-20E1-46DA-AF70-F1AC69A79FE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3075"/>
   </bookViews>
   <sheets>
     <sheet name="接続材" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="引留材" sheetId="6" r:id="rId3"/>
     <sheet name="電線種類" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="227">
   <si>
     <t>製品名</t>
     <rPh sb="0" eb="3">
@@ -445,20 +444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>min（電線2）</t>
-    <rPh sb="4" eb="6">
-      <t>デンセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max（電線2）</t>
-    <rPh sb="4" eb="6">
-      <t>デンセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10φ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1361,13 +1346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>区分</t>
-    <rPh sb="0" eb="2">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>蓄力</t>
     <rPh sb="0" eb="1">
       <t>チク</t>
@@ -1522,13 +1500,56 @@
     <rPh sb="0" eb="2">
       <t>タンシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cable</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1930,12 +1951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457609DB-23D8-4819-B641-E1E1396FDE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1954,58 +1975,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="R1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -2013,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2057,10 +2078,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2104,10 +2125,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -2151,10 +2172,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -2204,10 +2225,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2251,10 +2272,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -2298,10 +2319,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2336,10 +2357,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2374,16 +2395,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2401,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s">
         <v>141</v>
-      </c>
-      <c r="L10" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -2415,16 +2436,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2442,13 +2463,13 @@
         <v>8</v>
       </c>
       <c r="K11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s">
         <v>141</v>
-      </c>
-      <c r="L11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -2456,16 +2477,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -2483,13 +2504,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="s">
         <v>141</v>
-      </c>
-      <c r="L12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -2497,16 +2518,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -2524,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
         <v>141</v>
-      </c>
-      <c r="L13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -2538,16 +2559,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -2565,13 +2586,13 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -2579,16 +2600,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -2606,13 +2627,13 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
         <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -2620,16 +2641,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -2647,13 +2668,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -2661,16 +2682,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2688,13 +2709,13 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="s">
         <v>141</v>
-      </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -2702,16 +2723,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -2729,13 +2750,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" t="s">
         <v>141</v>
-      </c>
-      <c r="L18" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -2743,16 +2764,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -2770,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
         <v>141</v>
-      </c>
-      <c r="L19" t="s">
-        <v>142</v>
-      </c>
-      <c r="M19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -2784,16 +2805,16 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2811,13 +2832,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
         <v>141</v>
-      </c>
-      <c r="L20" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -2825,16 +2846,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2852,13 +2873,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" t="s">
         <v>141</v>
-      </c>
-      <c r="L21" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2866,16 +2887,16 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2893,13 +2914,13 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" t="s">
         <v>141</v>
-      </c>
-      <c r="L22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -2907,16 +2928,16 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2934,13 +2955,13 @@
         <v>125</v>
       </c>
       <c r="K23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s">
         <v>141</v>
-      </c>
-      <c r="L23" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -2948,16 +2969,16 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D24" s="10">
         <v>2.6</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2975,13 +2996,13 @@
         <v>2.6</v>
       </c>
       <c r="K24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" t="s">
         <v>141</v>
-      </c>
-      <c r="L24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -2989,16 +3010,16 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D25" s="10">
         <v>3.2</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -3016,13 +3037,13 @@
         <v>3.2</v>
       </c>
       <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" t="s">
         <v>141</v>
-      </c>
-      <c r="L25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -3030,16 +3051,16 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D26" s="10">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -3057,13 +3078,13 @@
         <v>14</v>
       </c>
       <c r="K26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" t="s">
-        <v>142</v>
-      </c>
-      <c r="M26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -3071,20 +3092,20 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E27" t="str">
         <f>"Alスリーブ"&amp;D27&amp;"HD"</f>
         <v>AlスリーブH45T1HD</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G27" s="6">
         <v>2</v>
@@ -3099,13 +3120,13 @@
         <v>60</v>
       </c>
       <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
         <v>141</v>
-      </c>
-      <c r="L27" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -3113,20 +3134,20 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
         <v>148</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ref="E28:E38" si="0">"Alスリーブ"&amp;D28&amp;"HD"</f>
         <v>AlスリーブH4T24HD</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G28" s="6">
         <v>4</v>
@@ -3141,13 +3162,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" t="s">
         <v>141</v>
-      </c>
-      <c r="L28" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -3155,20 +3176,20 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH5T24HD</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G29" s="6">
         <v>4</v>
@@ -3183,13 +3204,13 @@
         <v>60</v>
       </c>
       <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
         <v>141</v>
-      </c>
-      <c r="L29" t="s">
-        <v>142</v>
-      </c>
-      <c r="M29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -3197,20 +3218,20 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH5T5HD</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G30" s="7">
         <v>55</v>
@@ -3225,13 +3246,13 @@
         <v>60</v>
       </c>
       <c r="K30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
         <v>141</v>
-      </c>
-      <c r="L30" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -3239,20 +3260,20 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T1HD</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G31" s="6">
         <v>2</v>
@@ -3267,13 +3288,13 @@
         <v>125</v>
       </c>
       <c r="K31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="s">
         <v>141</v>
-      </c>
-      <c r="L31" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -3281,20 +3302,20 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T24HD</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G32" s="6">
         <v>4</v>
@@ -3309,13 +3330,13 @@
         <v>125</v>
       </c>
       <c r="K32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" t="s">
         <v>141</v>
-      </c>
-      <c r="L32" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -3323,20 +3344,20 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T5HD</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G33" s="7">
         <v>55</v>
@@ -3351,13 +3372,13 @@
         <v>125</v>
       </c>
       <c r="K33" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" t="s">
         <v>141</v>
-      </c>
-      <c r="L33" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -3365,20 +3386,20 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH6T6HD</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G34" s="7">
         <v>80</v>
@@ -3393,13 +3414,13 @@
         <v>125</v>
       </c>
       <c r="K34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34" t="s">
         <v>141</v>
-      </c>
-      <c r="L34" t="s">
-        <v>142</v>
-      </c>
-      <c r="M34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -3407,20 +3428,20 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T1HD</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G35" s="6">
         <v>2</v>
@@ -3435,13 +3456,13 @@
         <v>200</v>
       </c>
       <c r="K35" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" t="s">
         <v>141</v>
-      </c>
-      <c r="L35" t="s">
-        <v>142</v>
-      </c>
-      <c r="M35" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -3449,20 +3470,20 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T25HD</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" s="6">
         <v>4</v>
@@ -3477,13 +3498,13 @@
         <v>200</v>
       </c>
       <c r="K36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M36" t="s">
         <v>141</v>
-      </c>
-      <c r="L36" t="s">
-        <v>142</v>
-      </c>
-      <c r="M36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -3491,20 +3512,20 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T6HD</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G37" s="7">
         <v>80</v>
@@ -3519,13 +3540,13 @@
         <v>200</v>
       </c>
       <c r="K37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M37" t="s">
         <v>141</v>
-      </c>
-      <c r="L37" t="s">
-        <v>142</v>
-      </c>
-      <c r="M37" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -3533,20 +3554,20 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>AlスリーブH7T7HD</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G38" s="7">
         <v>125</v>
@@ -3561,13 +3582,13 @@
         <v>200</v>
       </c>
       <c r="K38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M38" t="s">
         <v>141</v>
-      </c>
-      <c r="L38" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -3575,19 +3596,19 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G39" s="6">
         <v>2.6</v>
@@ -3602,10 +3623,10 @@
         <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -3613,19 +3634,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C40" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G40" s="7">
         <v>14</v>
@@ -3640,10 +3661,10 @@
         <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -3651,19 +3672,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G41" s="6">
         <v>5</v>
@@ -3678,10 +3699,10 @@
         <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -3689,19 +3710,19 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G42" s="6">
         <v>5</v>
@@ -3716,10 +3737,10 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -3727,19 +3748,19 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G43" s="7">
         <v>38</v>
@@ -3754,10 +3775,10 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -3765,19 +3786,19 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G44" s="7">
         <v>60</v>
@@ -3792,10 +3813,10 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -3803,19 +3824,19 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G45" s="7">
         <v>60</v>
@@ -3830,10 +3851,10 @@
         <v>38</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -3841,37 +3862,37 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="7">
+        <v>60</v>
+      </c>
+      <c r="H46" s="4">
+        <v>60</v>
+      </c>
+      <c r="I46" s="4">
+        <v>60</v>
+      </c>
+      <c r="J46" s="4">
+        <v>60</v>
+      </c>
+      <c r="K46" t="s">
+        <v>200</v>
+      </c>
+      <c r="L46" t="s">
         <v>201</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="7">
-        <v>60</v>
-      </c>
-      <c r="H46" s="4">
-        <v>60</v>
-      </c>
-      <c r="I46" s="4">
-        <v>60</v>
-      </c>
-      <c r="J46" s="4">
-        <v>60</v>
-      </c>
-      <c r="K46" t="s">
-        <v>203</v>
-      </c>
-      <c r="L46" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -3879,19 +3900,19 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G47" s="7">
         <v>80</v>
@@ -3906,10 +3927,10 @@
         <v>38</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -3917,19 +3938,19 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G48" s="7">
         <v>80</v>
@@ -3944,10 +3965,10 @@
         <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -3955,19 +3976,19 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="7">
         <v>80</v>
@@ -3982,10 +4003,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -3993,19 +4014,19 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G50" s="7">
         <v>150</v>
@@ -4020,10 +4041,10 @@
         <v>38</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -4031,19 +4052,19 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G51" s="7">
         <v>150</v>
@@ -4058,10 +4079,10 @@
         <v>125</v>
       </c>
       <c r="K51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -4069,19 +4090,19 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G52" s="7">
         <v>5</v>
@@ -4096,10 +4117,10 @@
         <v>200</v>
       </c>
       <c r="K52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -4107,19 +4128,19 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G53" s="7">
         <v>38</v>
@@ -4134,10 +4155,10 @@
         <v>200</v>
       </c>
       <c r="K53" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -4145,19 +4166,19 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" t="s">
         <v>196</v>
-      </c>
-      <c r="F54" t="s">
-        <v>198</v>
       </c>
       <c r="G54" s="4">
         <v>60</v>
@@ -4172,10 +4193,10 @@
         <v>125</v>
       </c>
       <c r="K54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -4183,19 +4204,19 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G55" s="7">
         <v>150</v>
@@ -4210,10 +4231,10 @@
         <v>150</v>
       </c>
       <c r="K55" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
@@ -4221,16 +4242,16 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -4253,16 +4274,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -4285,16 +4306,16 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="C58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -4317,13 +4338,13 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
         <v>212</v>
       </c>
-      <c r="C59" t="s">
-        <v>215</v>
-      </c>
       <c r="D59" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E59" t="str">
         <f>"スリーブS"&amp;D59&amp;"T"</f>
@@ -4350,10 +4371,10 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
         <v>212</v>
-      </c>
-      <c r="C60" t="s">
-        <v>215</v>
       </c>
       <c r="D60" s="10">
         <v>60</v>
@@ -4383,10 +4404,10 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
         <v>212</v>
-      </c>
-      <c r="C61" t="s">
-        <v>215</v>
       </c>
       <c r="D61" s="10">
         <v>150</v>
@@ -4416,10 +4437,10 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D62" s="4">
         <v>60</v>
@@ -4444,7 +4465,7 @@
         <v>60</v>
       </c>
       <c r="K62" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
@@ -4452,10 +4473,10 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D63" s="4">
         <v>150</v>
@@ -4480,7 +4501,7 @@
         <v>150</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
@@ -4488,10 +4509,10 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D64" s="4">
         <v>22</v>
@@ -4515,16 +4536,16 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D65" s="4">
         <v>60</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ref="E65:E68" si="2">"銅端子"&amp;D65&amp;"T"</f>
+        <f t="shared" ref="E65:E67" si="2">"銅端子"&amp;D65&amp;"T"</f>
         <v>銅端子60T</v>
       </c>
       <c r="F65" t="s">
@@ -4542,10 +4563,10 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D66" s="4">
         <v>100</v>
@@ -4569,10 +4590,10 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D67" s="4">
         <v>200</v>
@@ -4603,7 +4624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022E8996-E8DF-4147-9C3C-908A128AAFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4632,27 +4653,27 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -4663,16 +4684,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>900</v>
@@ -4683,16 +4704,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
       </c>
       <c r="E4">
         <v>1200</v>
@@ -4703,16 +4724,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -4723,16 +4744,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>1500</v>
@@ -4743,16 +4764,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>1500</v>
@@ -4763,16 +4784,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -4789,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25175B55-8905-482A-B97E-12E5F51CB432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4842,7 +4863,7 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -4850,7 +4871,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -4879,7 +4900,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -4908,7 +4929,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -4937,7 +4958,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -4972,7 +4993,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -5007,7 +5028,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -5042,7 +5063,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -5066,7 +5087,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -5090,7 +5111,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -5114,7 +5135,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -5141,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D63E90C-BE91-41B7-B11D-FEF2AC8A13CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/3.15_製品データベース.xlsx
+++ b/data/3.15_製品データベース.xlsx
@@ -1550,11 +1550,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1595,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1614,9 +1612,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1627,9 +1622,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1956,7 +1948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1966,10 +1958,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1980,7 +1972,7 @@
       <c r="B1" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>223</v>
       </c>
       <c r="D1" t="s">
@@ -1992,16 +1984,16 @@
       <c r="F1" t="s">
         <v>226</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>219</v>
       </c>
       <c r="K1" t="s">
@@ -2048,16 +2040,16 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>8</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
       <c r="K2" t="s">
@@ -2092,16 +2084,16 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2">
         <v>14</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>22</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -2139,16 +2131,16 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <v>38</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>38</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>38</v>
       </c>
       <c r="K4" t="s">
@@ -2186,16 +2178,16 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4">
-        <v>60</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="2">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>60</v>
       </c>
       <c r="K5" t="s">
@@ -2239,16 +2231,16 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>80</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>100</v>
       </c>
       <c r="K6" t="s">
@@ -2286,16 +2278,16 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>125</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>125</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>125</v>
       </c>
       <c r="K7" t="s">
@@ -2333,16 +2325,16 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>150</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>150</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>22</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>150</v>
       </c>
       <c r="K8" t="s">
@@ -2371,16 +2363,16 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <v>250</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>250</v>
       </c>
-      <c r="I9" s="4">
-        <v>60</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="2">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2">
         <v>250</v>
       </c>
       <c r="K9" t="s">
@@ -2409,16 +2401,16 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="2">
         <v>2.6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="2">
         <v>2.6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="2">
         <v>8</v>
       </c>
       <c r="K10" t="s">
@@ -2450,16 +2442,16 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>14</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="2">
         <v>2.6</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="2">
         <v>8</v>
       </c>
       <c r="K11" t="s">
@@ -2491,16 +2483,16 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>14</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="2">
         <v>14</v>
       </c>
       <c r="K12" t="s">
@@ -2532,16 +2524,16 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="2">
         <v>22</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="2">
         <v>2.6</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="2">
         <v>8</v>
       </c>
       <c r="K13" t="s">
@@ -2573,16 +2565,16 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="2">
         <v>22</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="2">
         <v>22</v>
       </c>
       <c r="K14" t="s">
@@ -2614,16 +2606,16 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="2">
         <v>38</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="2">
         <v>38</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="2">
         <v>3.2</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="2">
         <v>22</v>
       </c>
       <c r="K15" t="s">
@@ -2655,16 +2647,16 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>38</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>38</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="2">
         <v>38</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="2">
         <v>38</v>
       </c>
       <c r="K16" t="s">
@@ -2696,16 +2688,16 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="7">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7">
-        <v>60</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="G17" s="2">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2">
         <v>3.2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="2">
         <v>22</v>
       </c>
       <c r="K17" t="s">
@@ -2737,16 +2729,16 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7">
-        <v>60</v>
-      </c>
-      <c r="H18" s="7">
-        <v>60</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="G18" s="2">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2">
+        <v>60</v>
+      </c>
+      <c r="I18" s="2">
         <v>38</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="2">
         <v>38</v>
       </c>
       <c r="K18" t="s">
@@ -2778,16 +2770,16 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="7">
-        <v>60</v>
-      </c>
-      <c r="H19" s="7">
-        <v>60</v>
-      </c>
-      <c r="I19" s="7">
-        <v>60</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="G19" s="2">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2">
+        <v>60</v>
+      </c>
+      <c r="I19" s="2">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
         <v>60</v>
       </c>
       <c r="K19" t="s">
@@ -2819,16 +2811,16 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>100</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="2">
         <v>125</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="2">
         <v>4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="2">
         <v>22</v>
       </c>
       <c r="K20" t="s">
@@ -2860,16 +2852,16 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="2">
         <v>100</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="2">
         <v>125</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>38</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>38</v>
       </c>
       <c r="K21" t="s">
@@ -2901,16 +2893,16 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="2">
         <v>100</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="2">
         <v>125</v>
       </c>
-      <c r="I22" s="4">
-        <v>60</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" s="2">
+        <v>60</v>
+      </c>
+      <c r="J22" s="2">
         <v>60</v>
       </c>
       <c r="K22" t="s">
@@ -2942,16 +2934,16 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="2">
         <v>100</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="2">
         <v>125</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>100</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>125</v>
       </c>
       <c r="K23" t="s">
@@ -2974,7 +2966,7 @@
       <c r="C24" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>2.6</v>
       </c>
       <c r="E24" t="s">
@@ -2983,16 +2975,16 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="2">
         <v>2.6</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="2">
         <v>2.6</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="2">
         <v>2.6</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="2">
         <v>2.6</v>
       </c>
       <c r="K24" t="s">
@@ -3015,7 +3007,7 @@
       <c r="C25" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>3.2</v>
       </c>
       <c r="E25" t="s">
@@ -3024,16 +3016,16 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="2">
         <v>3.2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="2">
         <v>3.2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="2">
         <v>3.2</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="2">
         <v>3.2</v>
       </c>
       <c r="K25" t="s">
@@ -3056,7 +3048,7 @@
       <c r="C26" t="s">
         <v>212</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>14</v>
       </c>
       <c r="E26" t="s">
@@ -3107,16 +3099,16 @@
       <c r="F27" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="2">
         <v>2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>8</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>25</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>60</v>
       </c>
       <c r="K27" t="s">
@@ -3149,16 +3141,16 @@
       <c r="F28" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <v>38</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>25</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>38</v>
       </c>
       <c r="K28" t="s">
@@ -3191,16 +3183,16 @@
       <c r="F29" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>38</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>55</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>60</v>
       </c>
       <c r="K29" t="s">
@@ -3233,16 +3225,16 @@
       <c r="F30" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="2">
         <v>55</v>
       </c>
-      <c r="H30" s="4">
-        <v>60</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30" s="2">
+        <v>60</v>
+      </c>
+      <c r="I30" s="2">
         <v>55</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>60</v>
       </c>
       <c r="K30" t="s">
@@ -3275,16 +3267,16 @@
       <c r="F31" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="2">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>80</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>125</v>
       </c>
       <c r="K31" t="s">
@@ -3317,16 +3309,16 @@
       <c r="F32" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="2">
         <v>38</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <v>80</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <v>125</v>
       </c>
       <c r="K32" t="s">
@@ -3359,16 +3351,16 @@
       <c r="F33" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="2">
         <v>55</v>
       </c>
-      <c r="H33" s="4">
-        <v>60</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="H33" s="2">
+        <v>60</v>
+      </c>
+      <c r="I33" s="2">
         <v>80</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>125</v>
       </c>
       <c r="K33" t="s">
@@ -3401,16 +3393,16 @@
       <c r="F34" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="2">
         <v>80</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="2">
         <v>125</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="2">
         <v>80</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="2">
         <v>125</v>
       </c>
       <c r="K34" t="s">
@@ -3443,16 +3435,16 @@
       <c r="F35" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="2">
         <v>2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="2">
         <v>8</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2">
         <v>125</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="2">
         <v>200</v>
       </c>
       <c r="K35" t="s">
@@ -3485,16 +3477,16 @@
       <c r="F36" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="2">
         <v>4</v>
       </c>
-      <c r="H36" s="4">
-        <v>60</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="2">
+        <v>60</v>
+      </c>
+      <c r="I36" s="2">
         <v>125</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="2">
         <v>200</v>
       </c>
       <c r="K36" t="s">
@@ -3527,16 +3519,16 @@
       <c r="F37" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="2">
         <v>80</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="2">
         <v>125</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <v>125</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="2">
         <v>200</v>
       </c>
       <c r="K37" t="s">
@@ -3569,16 +3561,16 @@
       <c r="F38" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="2">
         <v>125</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="2">
         <v>200</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="2">
         <v>125</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="2">
         <v>200</v>
       </c>
       <c r="K38" t="s">
@@ -3601,7 +3593,7 @@
       <c r="C39" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E39" t="s">
@@ -3610,16 +3602,16 @@
       <c r="F39" t="s">
         <v>196</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="2">
         <v>2.6</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="2">
         <v>8</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="2">
         <v>2.6</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="2">
         <v>8</v>
       </c>
       <c r="K39" t="s">
@@ -3639,7 +3631,7 @@
       <c r="C40" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>163</v>
       </c>
       <c r="E40" t="s">
@@ -3648,16 +3640,16 @@
       <c r="F40" t="s">
         <v>196</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="2">
         <v>14</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="2">
         <v>14</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="2">
         <v>2.6</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="2">
         <v>8</v>
       </c>
       <c r="K40" t="s">
@@ -3677,7 +3669,7 @@
       <c r="C41" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E41" t="s">
@@ -3686,16 +3678,16 @@
       <c r="F41" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="2">
         <v>5</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="2">
         <v>22</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="2">
         <v>2.6</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="2">
         <v>8</v>
       </c>
       <c r="K41" t="s">
@@ -3715,7 +3707,7 @@
       <c r="C42" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E42" t="s">
@@ -3724,16 +3716,16 @@
       <c r="F42" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>22</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="2">
         <v>14</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="2">
         <v>22</v>
       </c>
       <c r="K42" t="s">
@@ -3753,7 +3745,7 @@
       <c r="C43" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>166</v>
       </c>
       <c r="E43" t="s">
@@ -3762,16 +3754,16 @@
       <c r="F43" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="2">
         <v>38</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>38</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="2">
         <v>3.2</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="2">
         <v>22</v>
       </c>
       <c r="K43" t="s">
@@ -3791,7 +3783,7 @@
       <c r="C44" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E44" t="s">
@@ -3800,16 +3792,16 @@
       <c r="F44" t="s">
         <v>196</v>
       </c>
-      <c r="G44" s="7">
-        <v>60</v>
-      </c>
-      <c r="H44" s="4">
-        <v>60</v>
-      </c>
-      <c r="I44" s="4">
+      <c r="G44" s="2">
+        <v>60</v>
+      </c>
+      <c r="H44" s="2">
+        <v>60</v>
+      </c>
+      <c r="I44" s="2">
         <v>3.2</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="2">
         <v>22</v>
       </c>
       <c r="K44" t="s">
@@ -3829,7 +3821,7 @@
       <c r="C45" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E45" t="s">
@@ -3838,16 +3830,16 @@
       <c r="F45" t="s">
         <v>196</v>
       </c>
-      <c r="G45" s="7">
-        <v>60</v>
-      </c>
-      <c r="H45" s="4">
-        <v>60</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="G45" s="2">
+        <v>60</v>
+      </c>
+      <c r="H45" s="2">
+        <v>60</v>
+      </c>
+      <c r="I45" s="2">
         <v>38</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="2">
         <v>38</v>
       </c>
       <c r="K45" t="s">
@@ -3867,7 +3859,7 @@
       <c r="C46" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E46" t="s">
@@ -3876,16 +3868,16 @@
       <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="G46" s="7">
-        <v>60</v>
-      </c>
-      <c r="H46" s="4">
-        <v>60</v>
-      </c>
-      <c r="I46" s="4">
-        <v>60</v>
-      </c>
-      <c r="J46" s="4">
+      <c r="G46" s="2">
+        <v>60</v>
+      </c>
+      <c r="H46" s="2">
+        <v>60</v>
+      </c>
+      <c r="I46" s="2">
+        <v>60</v>
+      </c>
+      <c r="J46" s="2">
         <v>60</v>
       </c>
       <c r="K46" t="s">
@@ -3905,7 +3897,7 @@
       <c r="C47" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E47" t="s">
@@ -3914,16 +3906,16 @@
       <c r="F47" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="2">
         <v>80</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>100</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="2">
         <v>3.2</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="2">
         <v>38</v>
       </c>
       <c r="K47" t="s">
@@ -3943,7 +3935,7 @@
       <c r="C48" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>171</v>
       </c>
       <c r="E48" t="s">
@@ -3952,16 +3944,16 @@
       <c r="F48" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="2">
         <v>80</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="2">
         <v>100</v>
       </c>
-      <c r="I48" s="4">
-        <v>60</v>
-      </c>
-      <c r="J48" s="4">
+      <c r="I48" s="2">
+        <v>60</v>
+      </c>
+      <c r="J48" s="2">
         <v>60</v>
       </c>
       <c r="K48" t="s">
@@ -3981,7 +3973,7 @@
       <c r="C49" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>172</v>
       </c>
       <c r="E49" t="s">
@@ -3990,16 +3982,16 @@
       <c r="F49" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="2">
         <v>80</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="2">
         <v>100</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="2">
         <v>80</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="2">
         <v>100</v>
       </c>
       <c r="K49" t="s">
@@ -4019,7 +4011,7 @@
       <c r="C50" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E50" t="s">
@@ -4028,16 +4020,16 @@
       <c r="F50" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="2">
         <v>150</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="2">
         <v>150</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="2">
         <v>5</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="2">
         <v>38</v>
       </c>
       <c r="K50" t="s">
@@ -4057,7 +4049,7 @@
       <c r="C51" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E51" t="s">
@@ -4066,16 +4058,16 @@
       <c r="F51" t="s">
         <v>196</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="2">
         <v>150</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>150</v>
       </c>
-      <c r="I51" s="4">
-        <v>60</v>
-      </c>
-      <c r="J51" s="4">
+      <c r="I51" s="2">
+        <v>60</v>
+      </c>
+      <c r="J51" s="2">
         <v>125</v>
       </c>
       <c r="K51" t="s">
@@ -4095,7 +4087,7 @@
       <c r="C52" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>175</v>
       </c>
       <c r="E52" t="s">
@@ -4104,16 +4096,16 @@
       <c r="F52" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="2">
         <v>5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="2">
         <v>22</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="2">
         <v>200</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="2">
         <v>200</v>
       </c>
       <c r="K52" t="s">
@@ -4133,7 +4125,7 @@
       <c r="C53" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E53" t="s">
@@ -4142,16 +4134,16 @@
       <c r="F53" t="s">
         <v>196</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="2">
         <v>38</v>
       </c>
-      <c r="H53" s="4">
-        <v>60</v>
-      </c>
-      <c r="I53" s="4">
+      <c r="H53" s="2">
+        <v>60</v>
+      </c>
+      <c r="I53" s="2">
         <v>200</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="2">
         <v>200</v>
       </c>
       <c r="K53" t="s">
@@ -4171,7 +4163,7 @@
       <c r="C54" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>177</v>
       </c>
       <c r="E54" t="s">
@@ -4180,16 +4172,16 @@
       <c r="F54" t="s">
         <v>196</v>
       </c>
-      <c r="G54" s="4">
-        <v>60</v>
-      </c>
-      <c r="H54" s="4">
-        <v>60</v>
-      </c>
-      <c r="I54" s="4">
+      <c r="G54" s="2">
+        <v>60</v>
+      </c>
+      <c r="H54" s="2">
+        <v>60</v>
+      </c>
+      <c r="I54" s="2">
         <v>125</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="2">
         <v>125</v>
       </c>
       <c r="K54" t="s">
@@ -4209,7 +4201,7 @@
       <c r="C55" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E55" t="s">
@@ -4218,16 +4210,16 @@
       <c r="F55" t="s">
         <v>196</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="2">
         <v>150</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="2">
         <v>200</v>
       </c>
-      <c r="I55" s="4">
-        <v>60</v>
-      </c>
-      <c r="J55" s="4">
+      <c r="I55" s="2">
+        <v>60</v>
+      </c>
+      <c r="J55" s="2">
         <v>150</v>
       </c>
       <c r="K55" t="s">
@@ -4247,25 +4239,25 @@
       <c r="C56" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="2">
         <v>5</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="2">
         <v>5</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="2">
         <v>2.6</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="2">
         <v>5.5</v>
       </c>
     </row>
@@ -4279,25 +4271,25 @@
       <c r="C57" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="7">
-        <v>60</v>
-      </c>
-      <c r="H57" s="4">
-        <v>60</v>
-      </c>
-      <c r="I57" s="4">
+      <c r="G57" s="2">
+        <v>60</v>
+      </c>
+      <c r="H57" s="2">
+        <v>60</v>
+      </c>
+      <c r="I57" s="2">
         <v>2.6</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="2">
         <v>5.5</v>
       </c>
     </row>
@@ -4311,25 +4303,25 @@
       <c r="C58" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="2">
         <v>150</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="2">
         <v>150</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="2">
         <v>2.6</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="2">
         <v>5.5</v>
       </c>
     </row>
@@ -4343,7 +4335,7 @@
       <c r="C59" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>210</v>
       </c>
       <c r="E59" t="str">
@@ -4353,16 +4345,16 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="2">
         <v>5</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="2">
         <v>5</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="2">
         <v>5</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="2">
         <v>5</v>
       </c>
     </row>
@@ -4376,7 +4368,7 @@
       <c r="C60" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>60</v>
       </c>
       <c r="E60" t="str">
@@ -4386,16 +4378,16 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="7">
-        <v>60</v>
-      </c>
-      <c r="H60" s="7">
-        <v>60</v>
-      </c>
-      <c r="I60" s="7">
-        <v>60</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="G60" s="2">
+        <v>60</v>
+      </c>
+      <c r="H60" s="2">
+        <v>60</v>
+      </c>
+      <c r="I60" s="2">
+        <v>60</v>
+      </c>
+      <c r="J60" s="2">
         <v>60</v>
       </c>
     </row>
@@ -4409,7 +4401,7 @@
       <c r="C61" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>150</v>
       </c>
       <c r="E61" t="str">
@@ -4419,16 +4411,16 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="2">
         <v>150</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="2">
         <v>150</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="2">
         <v>150</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="2">
         <v>150</v>
       </c>
     </row>
@@ -4452,16 +4444,16 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="7">
-        <v>60</v>
-      </c>
-      <c r="H62" s="4">
-        <v>60</v>
-      </c>
-      <c r="I62" s="4">
-        <v>60</v>
-      </c>
-      <c r="J62" s="4">
+      <c r="G62" s="2">
+        <v>60</v>
+      </c>
+      <c r="H62" s="2">
+        <v>60</v>
+      </c>
+      <c r="I62" s="2">
+        <v>60</v>
+      </c>
+      <c r="J62" s="2">
         <v>60</v>
       </c>
       <c r="K62" t="s">
@@ -4488,16 +4480,16 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="2">
         <v>150</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="2">
         <v>150</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="2">
         <v>150</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="2">
         <v>150</v>
       </c>
       <c r="K63" t="s">
@@ -4524,10 +4516,10 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="2">
         <v>22</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="2">
         <v>22</v>
       </c>
     </row>
@@ -4551,10 +4543,10 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="7">
-        <v>60</v>
-      </c>
-      <c r="H65" s="7">
+      <c r="G65" s="2">
+        <v>60</v>
+      </c>
+      <c r="H65" s="2">
         <v>60</v>
       </c>
     </row>
@@ -4578,10 +4570,10 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="2">
         <v>100</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="2">
         <v>100</v>
       </c>
     </row>
@@ -4605,10 +4597,10 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="2">
         <v>200</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="2">
         <v>200</v>
       </c>
     </row>
@@ -4882,7 +4874,7 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>25</v>
       </c>
       <c r="G2" s="4">
@@ -4911,7 +4903,7 @@
       <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>95</v>
       </c>
       <c r="G3" s="5">
@@ -4940,7 +4932,7 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>150</v>
       </c>
       <c r="G4" s="5">
@@ -4969,7 +4961,7 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>25</v>
       </c>
       <c r="G5" s="4">
@@ -5004,7 +4996,7 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>120</v>
       </c>
       <c r="G6" s="5">
@@ -5039,7 +5031,7 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>400</v>
       </c>
       <c r="G7" s="4">
@@ -5074,7 +5066,7 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="5">
@@ -5098,7 +5090,7 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>60</v>
       </c>
       <c r="G9" s="4">
@@ -5122,7 +5114,7 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>80</v>
       </c>
       <c r="G10" s="5">
@@ -5146,7 +5138,7 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>125</v>
       </c>
       <c r="G11" s="5">

--- a/data/3.15_製品データベース.xlsx
+++ b/data/3.15_製品データベース.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="接続材" sheetId="4" r:id="rId1"/>
-    <sheet name="接地材" sheetId="5" r:id="rId2"/>
-    <sheet name="引留材" sheetId="6" r:id="rId3"/>
-    <sheet name="電線種類" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="接地材" sheetId="5" r:id="rId3"/>
+    <sheet name="引留材" sheetId="6" r:id="rId4"/>
+    <sheet name="電線種類" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1947,8 +1948,8 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3100,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="G27" s="2">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>60</v>
+      </c>
+      <c r="I27" s="2">
         <v>2</v>
       </c>
-      <c r="H27" s="2">
+      <c r="J27" s="2">
         <v>8</v>
-      </c>
-      <c r="I27" s="2">
-        <v>25</v>
-      </c>
-      <c r="J27" s="2">
-        <v>60</v>
       </c>
       <c r="K27" t="s">
         <v>139</v>
@@ -3142,13 +3143,13 @@
         <v>159</v>
       </c>
       <c r="G28" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2">
         <v>38</v>
       </c>
       <c r="I28" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2">
         <v>38</v>
@@ -3184,16 +3185,16 @@
         <v>159</v>
       </c>
       <c r="G29" s="2">
+        <v>55</v>
+      </c>
+      <c r="H29" s="2">
+        <v>60</v>
+      </c>
+      <c r="I29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="2">
+      <c r="J29" s="2">
         <v>38</v>
-      </c>
-      <c r="I29" s="2">
-        <v>55</v>
-      </c>
-      <c r="J29" s="2">
-        <v>60</v>
       </c>
       <c r="K29" t="s">
         <v>139</v>
@@ -3268,16 +3269,16 @@
         <v>159</v>
       </c>
       <c r="G31" s="2">
+        <v>80</v>
+      </c>
+      <c r="H31" s="2">
+        <v>125</v>
+      </c>
+      <c r="I31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="2">
+      <c r="J31" s="2">
         <v>8</v>
-      </c>
-      <c r="I31" s="2">
-        <v>80</v>
-      </c>
-      <c r="J31" s="2">
-        <v>125</v>
       </c>
       <c r="K31" t="s">
         <v>139</v>
@@ -3310,16 +3311,16 @@
         <v>159</v>
       </c>
       <c r="G32" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" s="2">
+        <v>125</v>
+      </c>
+      <c r="I32" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="2">
+      <c r="J32" s="2">
         <v>38</v>
-      </c>
-      <c r="I32" s="2">
-        <v>80</v>
-      </c>
-      <c r="J32" s="2">
-        <v>125</v>
       </c>
       <c r="K32" t="s">
         <v>139</v>
@@ -3352,16 +3353,16 @@
         <v>159</v>
       </c>
       <c r="G33" s="2">
+        <v>80</v>
+      </c>
+      <c r="H33" s="2">
+        <v>125</v>
+      </c>
+      <c r="I33" s="2">
         <v>55</v>
       </c>
-      <c r="H33" s="2">
-        <v>60</v>
-      </c>
-      <c r="I33" s="2">
-        <v>80</v>
-      </c>
       <c r="J33" s="2">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K33" t="s">
         <v>139</v>
@@ -3436,16 +3437,16 @@
         <v>159</v>
       </c>
       <c r="G35" s="2">
+        <v>125</v>
+      </c>
+      <c r="H35" s="2">
+        <v>200</v>
+      </c>
+      <c r="I35" s="2">
         <v>2</v>
       </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
         <v>8</v>
-      </c>
-      <c r="I35" s="2">
-        <v>125</v>
-      </c>
-      <c r="J35" s="2">
-        <v>200</v>
       </c>
       <c r="K35" t="s">
         <v>139</v>
@@ -3478,16 +3479,16 @@
         <v>159</v>
       </c>
       <c r="G36" s="2">
+        <v>125</v>
+      </c>
+      <c r="H36" s="2">
+        <v>200</v>
+      </c>
+      <c r="I36" s="2">
         <v>4</v>
       </c>
-      <c r="H36" s="2">
-        <v>60</v>
-      </c>
-      <c r="I36" s="2">
-        <v>125</v>
-      </c>
       <c r="J36" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K36" t="s">
         <v>139</v>
@@ -3520,16 +3521,16 @@
         <v>159</v>
       </c>
       <c r="G37" s="2">
+        <v>125</v>
+      </c>
+      <c r="H37" s="2">
+        <v>200</v>
+      </c>
+      <c r="I37" s="2">
         <v>80</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <v>125</v>
-      </c>
-      <c r="I37" s="2">
-        <v>125</v>
-      </c>
-      <c r="J37" s="2">
-        <v>200</v>
       </c>
       <c r="K37" t="s">
         <v>139</v>
@@ -4607,7 +4608,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D11 D13 D40:D41" twoDigitTextYear="1"/>
     <ignoredError sqref="D59" numberStoredAsText="1"/>
@@ -4616,6 +4617,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -4801,7 +4817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -5153,7 +5169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>

--- a/data/3.15_製品データベース.xlsx
+++ b/data/3.15_製品データベース.xlsx
@@ -1948,8 +1948,8 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4385,12 +4385,8 @@
       <c r="H60" s="2">
         <v>60</v>
       </c>
-      <c r="I60" s="2">
-        <v>60</v>
-      </c>
-      <c r="J60" s="2">
-        <v>60</v>
-      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">

--- a/data/3.15_製品データベース.xlsx
+++ b/data/3.15_製品データベース.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3075"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9540" windowHeight="3075"/>
   </bookViews>
   <sheets>
     <sheet name="接続材" sheetId="4" r:id="rId1"/>
@@ -1948,8 +1948,8 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60:J60"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4385,8 +4385,12 @@
       <c r="H60" s="2">
         <v>60</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="I60" s="2">
+        <v>60</v>
+      </c>
+      <c r="J60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
